--- a/TaskSet-IV/sample.xlsx
+++ b/TaskSet-IV/sample.xlsx
@@ -424,7 +424,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>hello</t>
+          <t>Hello world</t>
         </is>
       </c>
     </row>
